--- a/장혁재_일정표.xlsx
+++ b/장혁재_일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjchang\Documents\GitHub\CapstoneDesign-2019-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3174CC69-4165-4B49-89E8-3BF9F39B8EAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05421CD-5DEF-4F2D-897E-9DDE42704EE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2970" windowWidth="29040" windowHeight="15840" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
+    <workbookView xWindow="3840" yWindow="3255" windowWidth="21600" windowHeight="12735" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,12 +304,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,9 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,15 +356,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -380,13 +374,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +703,7 @@
   <dimension ref="A2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -717,181 +711,181 @@
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="7">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>6</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>7</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>8</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>9</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>10</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>11</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>12</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>13</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="25" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="22" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="23"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="23"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="23"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="23"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="24"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:H9"/>
     <mergeCell ref="N3:N9"/>
-    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/장혁재_일정표.xlsx
+++ b/장혁재_일정표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\CapstoneDesign-2019-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05421CD-5DEF-4F2D-897E-9DDE42704EE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A014E5-B809-4F9F-960A-EA3F741362F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3255" windowWidth="21600" windowHeight="12735" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>판매자용 로그인/가입 기능 구현</t>
   </si>
@@ -40,14 +40,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>중간데모</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막   데모</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">가게 배치도 입력 UI 및 저장 기능 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -69,6 +61,32 @@
   </si>
   <si>
     <t>피드백 &amp; 버그수정, 예외처리 etc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid
+Demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final
+Demo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +128,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -195,19 +220,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -289,8 +301,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,8 +326,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,34 +355,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,30 +388,55 @@
     <xf numFmtId="41" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="강조색1" xfId="3" builtinId="29"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="4" xr:uid="{10A7B41B-D7A2-41D8-B764-95E221379AC0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,192 +748,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A81576-52CA-436C-A93E-FF5A5F0A8E13}">
-  <dimension ref="A2:N9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="32">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="32">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="32">
         <v>5</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="32">
         <v>6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="32">
         <v>7</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="32">
         <v>8</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="32">
         <v>9</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="32">
         <v>10</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="32">
         <v>11</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="32">
         <v>12</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="32">
         <v>13</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="32">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>2</v>
+      <c r="G3" s="10"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="20" t="s">
-        <v>3</v>
+      <c r="N3" s="19" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="13"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="21"/>
+      <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="7"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="21"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="B9" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="22"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="N3:N9"/>
     <mergeCell ref="I3:I9"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/장혁재_일정표.xlsx
+++ b/장혁재_일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CapstoneDesign-2019-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjchang\Documents\GitHub\CapstoneDesign-2019-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A014E5-B809-4F9F-960A-EA3F741362F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2EFF9-891F-4298-9AF9-7F5E47F25302}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
+    <workbookView xWindow="8190" yWindow="4725" windowWidth="27270" windowHeight="15435" xr2:uid="{84EE8AC0-A4B1-4B21-8338-E6552C6F8BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,9 +364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -375,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
@@ -388,6 +382,15 @@
     <xf numFmtId="41" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,9 +425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,81 +751,81 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="32">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="17">
         <v>3</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="17">
         <v>4</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="17">
         <v>5</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="17">
         <v>6</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="17">
         <v>7</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="17">
         <v>9</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="17">
         <v>10</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="17">
         <v>11</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="17">
         <v>12</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="17">
         <v>13</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="17">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -836,56 +836,56 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,17 +893,17 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,16 +912,16 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,17 +930,17 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
@@ -948,13 +948,13 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="21"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
